--- a/biology/Botanique/Mauzac_(cépage)/Mauzac_(cépage).xlsx
+++ b/biology/Botanique/Mauzac_(cépage)/Mauzac_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le mauzac B[1] est un cépage de cuve blanc. Il est essentiellement cultivé dans le sud-ouest de la France. Il existe une variante à la pellicule rosée, le mauzac rose Rs.
+Le mauzac B est un cépage de cuve blanc. Il est essentiellement cultivé dans le sud-ouest de la France. Il existe une variante à la pellicule rosée, le mauzac rose Rs.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après son aire de culture, il serait issu de Gaillac. D'après Pierre Galet[2], il aurait été appelé Moissac à Bordeaux, puisqu'il transitait par ce port fluvial. Une déformation linguistique en aurait fait le mauzac.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après son aire de culture, il serait issu de Gaillac. D'après Pierre Galet, il aurait été appelé Moissac à Bordeaux, puisqu'il transitait par ce port fluvial. Une déformation linguistique en aurait fait le mauzac.
 Il fait partie des AOC Gaillac et Blanquette de Limoux. Il a été très répandu dans tout le vignoble du sud-ouest, mais il est aujourd'hui remplacé par le sauvignon B, aux arômes plus "à la mode".
-Il a aussi été très cultivé à Limoux, où il était utilisé pour élaborer la blanquette de Limoux[3]. Il doit aujourd'hui partager le vignoble avec le chenin B et le chardonnay B.
+Il a aussi été très cultivé à Limoux, où il était utilisé pour élaborer la blanquette de Limoux. Il doit aujourd'hui partager le vignoble avec le chenin B et le chardonnay B.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourgeonnement aplati, cotonneux, blanc à liseré rosé.
 Jeunes feuilles duveteuses jaunâtres.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales et technologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de maturité de deuxième époque tardive, trois semaines et demie après le Chasselas B.
 Il est moyennement vigoureux, mais assez productif. Il est bien adapté aux sols calcaires ou argilo-calcaires.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il donne un vin aux arômes caractéristiques de pomme mûre.
 Il produit de grands vins doux à Gaillac, aux flaveurs de coing, de miel ou de fruits confits.
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,11 +663,13 @@
           <t>Variabilité génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le catalogue des variétés de vignes cultivées en France, le mauzac B est répertorié avec le mauzac rose Rs; ce dernier est une variante à pellicule rose.
 Robert Plageoles, viticulteur à Gaillac, a créé une collection de vieux cépages et possède des variantes vertes, dorées et rouge de ce cépage. Selon les ampélographes, le mauzac rouge appartiendrait à une autre famille. 
-7 clones de mauzac blanc ont été homologués : les numéros 575, 738, 739, 740, 741, 898 et 899. Le mauzac rose en compte un seul, le 948. Cependant, la variabilité est plus importante puisque le conservatoire de Peyrole compte 146 mauzacs blancs et 52 roses[4].
+7 clones de mauzac blanc ont été homologués : les numéros 575, 738, 739, 740, 741, 898 et 899. Le mauzac rose en compte un seul, le 948. Cependant, la variabilité est plus importante puisque le conservatoire de Peyrole compte 146 mauzacs blancs et 52 roses.
 </t>
         </is>
       </c>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mauzac_(c%C3%A9page)</t>
+          <t>Mauzac_(cépage)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,6 +699,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
